--- a/doc/StockLineChart.xlsx
+++ b/doc/StockLineChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanhao\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanhao\Documents\GitHub\StockLineChart\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E83BF1-B2B8-4993-9FDE-5C4044CA5284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44A7126-D441-4F29-B330-0FD3B5E8592A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1110" windowWidth="20085" windowHeight="14025" xr2:uid="{E8AE5D27-4D85-45E2-95FB-99D94FCE6BE8}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="24765" windowHeight="16170" activeTab="5" xr2:uid="{E8AE5D27-4D85-45E2-95FB-99D94FCE6BE8}"/>
   </bookViews>
   <sheets>
     <sheet name="三角形" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="155">
   <si>
     <t>圖形解析2</t>
     <phoneticPr fontId="2"/>
@@ -1214,6 +1214,134 @@
   </si>
   <si>
     <t>破位前折点</t>
+  </si>
+  <si>
+    <t>取得指定list的高點list</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>|----------折点list3高點---------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡單解析Util2</t>
+  </si>
+  <si>
+    <t>取得指定日期的index</t>
+  </si>
+  <si>
+    <t>|----------zIndex---------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>解析出高臺信息_条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>果</t>
+    </r>
+  </si>
+  <si>
+    <t>|------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>is条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>果判定_条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>果_滿足</t>
+    </r>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>設置平臺信息</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chk間隔位置差</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chk間隔時間差</t>
+  </si>
+  <si>
+    <t>chk价格差</t>
+  </si>
+  <si>
+    <t>取得指定折点List的最高点</t>
+  </si>
+  <si>
+    <t>|-------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得視覺圖上最多不能跨過的誤差範圍</t>
+  </si>
+  <si>
+    <t>取得日線list中的index</t>
   </si>
 </sst>
 </file>
@@ -5809,7 +5937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F506F96C-5E9A-4685-96AE-51FA8C3AB7A7}">
   <dimension ref="C3:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -6134,19 +6262,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDCD285-7815-43C2-B105-91FEF078C6C4}">
-  <dimension ref="C3:BW106"/>
+  <dimension ref="C3:CG106"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="76" ySplit="3" topLeftCell="BZ43" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="BZ1" sqref="BZ1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AF56" sqref="AF56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="23" max="23" width="5.25" customWidth="1"/>
+    <col min="26" max="26" width="3.5" customWidth="1"/>
+    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:70" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:85" s="1" customFormat="1" ht="35.25" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6174,8 +6303,11 @@
       <c r="BR3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="3:85" x14ac:dyDescent="0.4">
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -6209,8 +6341,16 @@
       <c r="BO4" s="3"/>
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
-    </row>
-    <row r="5" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+    </row>
+    <row r="5" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -6247,8 +6387,16 @@
       <c r="BO5" s="3"/>
       <c r="BP5" s="3"/>
       <c r="BQ5" s="3"/>
-    </row>
-    <row r="6" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+    </row>
+    <row r="6" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -6285,8 +6433,16 @@
       <c r="BO6" s="3"/>
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3"/>
-    </row>
-    <row r="7" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+    </row>
+    <row r="7" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -6326,8 +6482,16 @@
       <c r="BO7" s="3"/>
       <c r="BP7" s="3"/>
       <c r="BQ7" s="3"/>
-    </row>
-    <row r="8" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+    </row>
+    <row r="8" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
@@ -6369,8 +6533,16 @@
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3"/>
-    </row>
-    <row r="9" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+    </row>
+    <row r="9" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
@@ -6412,8 +6584,16 @@
       <c r="BO9" s="3"/>
       <c r="BP9" s="3"/>
       <c r="BQ9" s="3"/>
-    </row>
-    <row r="10" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+    </row>
+    <row r="10" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
@@ -6431,6 +6611,9 @@
       <c r="V10" s="3"/>
       <c r="W10" t="s">
         <v>7</v>
+      </c>
+      <c r="AB10">
+        <v>20220726</v>
       </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -6456,8 +6639,16 @@
       <c r="BO10" s="3"/>
       <c r="BP10" s="3"/>
       <c r="BQ10" s="3"/>
-    </row>
-    <row r="11" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+    </row>
+    <row r="11" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
@@ -6475,6 +6666,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
+      <c r="W11" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
@@ -6491,7 +6685,9 @@
       <c r="AY11" s="3"/>
       <c r="AZ11" s="3"/>
       <c r="BA11" s="3"/>
-      <c r="BJ11" s="3"/>
+      <c r="BJ11" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="BK11" s="3"/>
       <c r="BL11" s="3"/>
       <c r="BM11" s="3"/>
@@ -6499,8 +6695,16 @@
       <c r="BO11" s="3"/>
       <c r="BP11" s="3"/>
       <c r="BQ11" s="3"/>
-    </row>
-    <row r="12" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
+    </row>
+    <row r="12" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -6518,6 +6722,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
+      <c r="W12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
@@ -6534,7 +6741,9 @@
       <c r="AY12" s="3"/>
       <c r="AZ12" s="3"/>
       <c r="BA12" s="3"/>
-      <c r="BJ12" s="3"/>
+      <c r="BJ12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="BK12" s="3"/>
       <c r="BL12" s="3"/>
       <c r="BM12" s="3"/>
@@ -6542,8 +6751,16 @@
       <c r="BO12" s="3"/>
       <c r="BP12" s="3"/>
       <c r="BQ12" s="3"/>
-    </row>
-    <row r="13" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
+    </row>
+    <row r="13" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -6561,6 +6778,9 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
+      <c r="W13" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
@@ -6585,8 +6805,18 @@
       <c r="BO13" s="3"/>
       <c r="BP13" s="3"/>
       <c r="BQ13" s="3"/>
-    </row>
-    <row r="14" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+    </row>
+    <row r="14" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
@@ -6604,6 +6834,9 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
+      <c r="W14" t="s">
+        <v>146</v>
+      </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -6628,8 +6861,16 @@
       <c r="BO14" s="3"/>
       <c r="BP14" s="3"/>
       <c r="BQ14" s="3"/>
-    </row>
-    <row r="15" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+    </row>
+    <row r="15" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -6649,6 +6890,12 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
+      <c r="W15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -6673,8 +6920,16 @@
       <c r="BO15" s="3"/>
       <c r="BP15" s="3"/>
       <c r="BQ15" s="3"/>
-    </row>
-    <row r="16" spans="3:70" x14ac:dyDescent="0.4">
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
+    </row>
+    <row r="16" spans="3:85" x14ac:dyDescent="0.4">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -6692,6 +6947,15 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>148</v>
+      </c>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -6716,8 +6980,16 @@
       <c r="BO16" s="3"/>
       <c r="BP16" s="3"/>
       <c r="BQ16" s="3"/>
-    </row>
-    <row r="17" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
+    </row>
+    <row r="17" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
@@ -6735,6 +7007,15 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
+      <c r="W17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>149</v>
+      </c>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
@@ -6751,7 +7032,9 @@
       <c r="AY17" s="3"/>
       <c r="AZ17" s="3"/>
       <c r="BA17" s="3"/>
-      <c r="BJ17" s="3"/>
+      <c r="BJ17" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="BK17" s="3"/>
       <c r="BL17" s="3"/>
       <c r="BM17" s="3"/>
@@ -6759,8 +7042,16 @@
       <c r="BO17" s="3"/>
       <c r="BP17" s="3"/>
       <c r="BQ17" s="3"/>
-    </row>
-    <row r="18" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
+    </row>
+    <row r="18" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
@@ -6778,6 +7069,18 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
+      <c r="W18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>154</v>
+      </c>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
@@ -6802,8 +7105,16 @@
       <c r="BO18" s="3"/>
       <c r="BP18" s="3"/>
       <c r="BQ18" s="3"/>
-    </row>
-    <row r="19" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
+    </row>
+    <row r="19" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
@@ -6826,6 +7137,15 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
+      <c r="W19" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>150</v>
+      </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
@@ -6850,8 +7170,16 @@
       <c r="BO19" s="3"/>
       <c r="BP19" s="3"/>
       <c r="BQ19" s="3"/>
-    </row>
-    <row r="20" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
+    </row>
+    <row r="20" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
@@ -6872,6 +7200,12 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
+      <c r="W20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
@@ -6888,7 +7222,9 @@
       <c r="AY20" s="3"/>
       <c r="AZ20" s="3"/>
       <c r="BA20" s="3"/>
-      <c r="BJ20" s="3"/>
+      <c r="BJ20" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="BK20" s="3"/>
       <c r="BL20" s="3"/>
       <c r="BM20" s="3"/>
@@ -6896,8 +7232,16 @@
       <c r="BO20" s="3"/>
       <c r="BP20" s="3"/>
       <c r="BQ20" s="3"/>
-    </row>
-    <row r="21" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3"/>
+    </row>
+    <row r="21" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
@@ -6920,6 +7264,12 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
+      <c r="W21" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
@@ -6944,8 +7294,18 @@
       <c r="BO21" s="3"/>
       <c r="BP21" s="3"/>
       <c r="BQ21" s="3"/>
-    </row>
-    <row r="22" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CF21" s="3"/>
+      <c r="CG21" s="3"/>
+    </row>
+    <row r="22" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
@@ -6966,6 +7326,12 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
+      <c r="W22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
@@ -6982,7 +7348,9 @@
       <c r="AY22" s="3"/>
       <c r="AZ22" s="3"/>
       <c r="BA22" s="3"/>
-      <c r="BJ22" s="3"/>
+      <c r="BJ22" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="BK22" s="3"/>
       <c r="BL22" s="3"/>
       <c r="BM22" s="3"/>
@@ -6990,8 +7358,16 @@
       <c r="BO22" s="3"/>
       <c r="BP22" s="3"/>
       <c r="BQ22" s="3"/>
-    </row>
-    <row r="23" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ22" s="3"/>
+      <c r="CA22" s="3"/>
+      <c r="CB22" s="3"/>
+      <c r="CC22" s="3"/>
+      <c r="CD22" s="3"/>
+      <c r="CE22" s="3"/>
+      <c r="CF22" s="3"/>
+      <c r="CG22" s="3"/>
+    </row>
+    <row r="23" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
@@ -7014,6 +7390,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
+      <c r="W23" t="s">
+        <v>146</v>
+      </c>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
@@ -7038,8 +7417,16 @@
       <c r="BO23" s="3"/>
       <c r="BP23" s="3"/>
       <c r="BQ23" s="3"/>
-    </row>
-    <row r="24" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
+    </row>
+    <row r="24" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
@@ -7060,6 +7447,12 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
+      <c r="W24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>145</v>
+      </c>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
@@ -7084,8 +7477,16 @@
       <c r="BO24" s="3"/>
       <c r="BP24" s="3"/>
       <c r="BQ24" s="3"/>
-    </row>
-    <row r="25" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
+    </row>
+    <row r="25" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
@@ -7108,6 +7509,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
+      <c r="W25" t="s">
+        <v>146</v>
+      </c>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
@@ -7132,8 +7536,16 @@
       <c r="BO25" s="3"/>
       <c r="BP25" s="3"/>
       <c r="BQ25" s="3"/>
-    </row>
-    <row r="26" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+      <c r="CD25" s="3"/>
+      <c r="CE25" s="3"/>
+      <c r="CF25" s="3"/>
+      <c r="CG25" s="3"/>
+    </row>
+    <row r="26" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
@@ -7152,6 +7564,12 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
+      <c r="W26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>147</v>
+      </c>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
@@ -7176,8 +7594,16 @@
       <c r="BO26" s="3"/>
       <c r="BP26" s="3"/>
       <c r="BQ26" s="3"/>
-    </row>
-    <row r="27" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
+    </row>
+    <row r="27" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
@@ -7220,8 +7646,16 @@
       <c r="BO27" s="3"/>
       <c r="BP27" s="3"/>
       <c r="BQ27" s="3"/>
-    </row>
-    <row r="28" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
+      <c r="CD27" s="3"/>
+      <c r="CE27" s="3"/>
+      <c r="CF27" s="3"/>
+      <c r="CG27" s="3"/>
+    </row>
+    <row r="28" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
@@ -7267,8 +7701,16 @@
       <c r="BO28" s="3"/>
       <c r="BP28" s="3"/>
       <c r="BQ28" s="3"/>
-    </row>
-    <row r="29" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ28" s="3"/>
+      <c r="CA28" s="3"/>
+      <c r="CB28" s="3"/>
+      <c r="CC28" s="3"/>
+      <c r="CD28" s="3"/>
+      <c r="CE28" s="3"/>
+      <c r="CF28" s="3"/>
+      <c r="CG28" s="3"/>
+    </row>
+    <row r="29" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
@@ -7311,8 +7753,16 @@
       <c r="BO29" s="3"/>
       <c r="BP29" s="3"/>
       <c r="BQ29" s="3"/>
-    </row>
-    <row r="30" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ29" s="3"/>
+      <c r="CA29" s="3"/>
+      <c r="CB29" s="3"/>
+      <c r="CC29" s="3"/>
+      <c r="CD29" s="3"/>
+      <c r="CE29" s="3"/>
+      <c r="CF29" s="3"/>
+      <c r="CG29" s="3"/>
+    </row>
+    <row r="30" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -7357,8 +7807,16 @@
       <c r="BO30" s="3"/>
       <c r="BP30" s="3"/>
       <c r="BQ30" s="3"/>
-    </row>
-    <row r="31" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
+      <c r="CD30" s="3"/>
+      <c r="CE30" s="3"/>
+      <c r="CF30" s="3"/>
+      <c r="CG30" s="3"/>
+    </row>
+    <row r="31" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
@@ -7403,8 +7861,16 @@
       <c r="BO31" s="3"/>
       <c r="BP31" s="3"/>
       <c r="BQ31" s="3"/>
-    </row>
-    <row r="32" spans="4:69" x14ac:dyDescent="0.4">
+      <c r="BZ31" s="3"/>
+      <c r="CA31" s="3"/>
+      <c r="CB31" s="3"/>
+      <c r="CC31" s="3"/>
+      <c r="CD31" s="3"/>
+      <c r="CE31" s="3"/>
+      <c r="CF31" s="3"/>
+      <c r="CG31" s="3"/>
+    </row>
+    <row r="32" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
@@ -7449,8 +7915,16 @@
       <c r="BO32" s="3"/>
       <c r="BP32" s="3"/>
       <c r="BQ32" s="3"/>
-    </row>
-    <row r="33" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ32" s="3"/>
+      <c r="CA32" s="3"/>
+      <c r="CB32" s="3"/>
+      <c r="CC32" s="3"/>
+      <c r="CD32" s="3"/>
+      <c r="CE32" s="3"/>
+      <c r="CF32" s="3"/>
+      <c r="CG32" s="3"/>
+    </row>
+    <row r="33" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
@@ -7495,8 +7969,16 @@
       <c r="BO33" s="3"/>
       <c r="BP33" s="3"/>
       <c r="BQ33" s="3"/>
-    </row>
-    <row r="34" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ33" s="3"/>
+      <c r="CA33" s="3"/>
+      <c r="CB33" s="3"/>
+      <c r="CC33" s="3"/>
+      <c r="CD33" s="3"/>
+      <c r="CE33" s="3"/>
+      <c r="CF33" s="3"/>
+      <c r="CG33" s="3"/>
+    </row>
+    <row r="34" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
@@ -7543,8 +8025,16 @@
       <c r="BO34" s="3"/>
       <c r="BP34" s="3"/>
       <c r="BQ34" s="3"/>
-    </row>
-    <row r="35" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ34" s="3"/>
+      <c r="CA34" s="3"/>
+      <c r="CB34" s="3"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="3"/>
+      <c r="CF34" s="3"/>
+      <c r="CG34" s="3"/>
+    </row>
+    <row r="35" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
@@ -7589,8 +8079,16 @@
       <c r="BO35" s="3"/>
       <c r="BP35" s="3"/>
       <c r="BQ35" s="3"/>
-    </row>
-    <row r="36" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ35" s="3"/>
+      <c r="CA35" s="3"/>
+      <c r="CB35" s="3"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="3"/>
+      <c r="CF35" s="3"/>
+      <c r="CG35" s="3"/>
+    </row>
+    <row r="36" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
@@ -7639,8 +8137,16 @@
       <c r="BO36" s="3"/>
       <c r="BP36" s="3"/>
       <c r="BQ36" s="3"/>
-    </row>
-    <row r="37" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
+      <c r="CB36" s="3"/>
+      <c r="CC36" s="3"/>
+      <c r="CD36" s="3"/>
+      <c r="CE36" s="3"/>
+      <c r="CF36" s="3"/>
+      <c r="CG36" s="3"/>
+    </row>
+    <row r="37" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
@@ -7691,8 +8197,16 @@
       <c r="BO37" s="3"/>
       <c r="BP37" s="3"/>
       <c r="BQ37" s="3"/>
-    </row>
-    <row r="38" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ37" s="3"/>
+      <c r="CA37" s="3"/>
+      <c r="CB37" s="3"/>
+      <c r="CC37" s="3"/>
+      <c r="CD37" s="3"/>
+      <c r="CE37" s="3"/>
+      <c r="CF37" s="3"/>
+      <c r="CG37" s="3"/>
+    </row>
+    <row r="38" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
@@ -7746,8 +8260,16 @@
       <c r="BR38" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ38" s="3"/>
+      <c r="CA38" s="3"/>
+      <c r="CB38" s="3"/>
+      <c r="CC38" s="3"/>
+      <c r="CD38" s="3"/>
+      <c r="CE38" s="3"/>
+      <c r="CF38" s="3"/>
+      <c r="CG38" s="3"/>
+    </row>
+    <row r="39" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
@@ -7801,8 +8323,16 @@
       <c r="BS39" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ39" s="3"/>
+      <c r="CA39" s="3"/>
+      <c r="CB39" s="3"/>
+      <c r="CC39" s="3"/>
+      <c r="CD39" s="3"/>
+      <c r="CE39" s="3"/>
+      <c r="CF39" s="3"/>
+      <c r="CG39" s="3"/>
+    </row>
+    <row r="40" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
@@ -7861,8 +8391,16 @@
       </c>
       <c r="BU40" s="7"/>
       <c r="BV40" s="7"/>
-    </row>
-    <row r="41" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ40" s="3"/>
+      <c r="CA40" s="3"/>
+      <c r="CB40" s="3"/>
+      <c r="CC40" s="3"/>
+      <c r="CD40" s="3"/>
+      <c r="CE40" s="3"/>
+      <c r="CF40" s="3"/>
+      <c r="CG40" s="3"/>
+    </row>
+    <row r="41" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
@@ -7919,8 +8457,16 @@
       <c r="BT41" s="7"/>
       <c r="BU41" s="7"/>
       <c r="BV41" s="7"/>
-    </row>
-    <row r="42" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
+      <c r="CB41" s="3"/>
+      <c r="CC41" s="3"/>
+      <c r="CD41" s="3"/>
+      <c r="CE41" s="3"/>
+      <c r="CF41" s="3"/>
+      <c r="CG41" s="3"/>
+    </row>
+    <row r="42" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
@@ -7979,8 +8525,16 @@
       </c>
       <c r="BU42" s="7"/>
       <c r="BV42" s="7"/>
-    </row>
-    <row r="43" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
+      <c r="CB42" s="3"/>
+      <c r="CC42" s="3"/>
+      <c r="CD42" s="3"/>
+      <c r="CE42" s="3"/>
+      <c r="CF42" s="3"/>
+      <c r="CG42" s="3"/>
+    </row>
+    <row r="43" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
@@ -8037,8 +8591,16 @@
       </c>
       <c r="BU43" s="7"/>
       <c r="BV43" s="7"/>
-    </row>
-    <row r="44" spans="4:75" x14ac:dyDescent="0.4">
+      <c r="BZ43" s="3"/>
+      <c r="CA43" s="3"/>
+      <c r="CB43" s="3"/>
+      <c r="CC43" s="3"/>
+      <c r="CD43" s="3"/>
+      <c r="CE43" s="3"/>
+      <c r="CF43" s="3"/>
+      <c r="CG43" s="3"/>
+    </row>
+    <row r="44" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
@@ -8098,7 +8660,7 @@
       </c>
       <c r="BV44" s="7"/>
     </row>
-    <row r="45" spans="4:75" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
@@ -8156,7 +8718,7 @@
       <c r="BU45" s="6"/>
       <c r="BV45" s="7"/>
     </row>
-    <row r="46" spans="4:75" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
@@ -8214,7 +8776,7 @@
       <c r="BU46" s="7"/>
       <c r="BV46" s="7"/>
     </row>
-    <row r="47" spans="4:75" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
@@ -8273,7 +8835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="4:75" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:85" x14ac:dyDescent="0.4">
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
